--- a/multiple_profiles_sorted_results.xlsx
+++ b/multiple_profiles_sorted_results.xlsx
@@ -473,113 +473,113 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>IPP585-Solar_1-Wind_1-ESS_1</t>
+          <t>IPP241-Solar_3-Wind_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103.099190244392</v>
+        <v>129.7316043227053</v>
       </c>
       <c r="C2" t="n">
-        <v>99.64452975237265</v>
+        <v>88.24017042041037</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3389.959170067472</v>
+        <v>3164.081687917208</v>
       </c>
       <c r="F2" t="n">
-        <v>4389.959170067472</v>
+        <v>4164.081687917208</v>
       </c>
       <c r="G2" t="n">
-        <v>65.00000000011937</v>
+        <v>65.00000000011914</v>
       </c>
       <c r="H2" t="n">
-        <v>13.50218545543646</v>
+        <v>17.64700479759088</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>IPP585-Solar_2-Wind_1-ESS_1</t>
+          <t>IPP241-Solar_3-Wind_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.68936793756286</v>
+        <v>133.1287247831341</v>
       </c>
       <c r="C3" t="n">
-        <v>102.0432121092483</v>
+        <v>87.03541073781425</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3439.964602686343</v>
+        <v>3220.761226087495</v>
       </c>
       <c r="F3" t="n">
-        <v>4439.964602686343</v>
+        <v>4220.761226087495</v>
       </c>
       <c r="G3" t="n">
-        <v>65.00000000011961</v>
+        <v>65.00000000011914</v>
       </c>
       <c r="H3" t="n">
-        <v>13.02590946731322</v>
+        <v>18.25556568411022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>IPP585-Solar_1-Wind_2-ESS_1</t>
+          <t>IPP241-Solar_4-Wind_1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200</v>
+        <v>103.099190244392</v>
       </c>
       <c r="C4" t="n">
-        <v>63.78080022266836</v>
+        <v>99.64452975237268</v>
       </c>
       <c r="D4" t="n">
-        <v>37.4172212383823</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3807.014872210519</v>
+        <v>3389.959170067466</v>
       </c>
       <c r="F4" t="n">
-        <v>4807.014872210519</v>
+        <v>4389.959170067466</v>
       </c>
       <c r="G4" t="n">
-        <v>65.00000000011929</v>
+        <v>65.00000000011939</v>
       </c>
       <c r="H4" t="n">
-        <v>27.34555967856782</v>
+        <v>13.50218545543646</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>IPP585-Solar_2-Wind_2-ESS_1</t>
+          <t>IPP241-Solar_4-Wind_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>130</v>
+        <v>106.191019047453</v>
       </c>
       <c r="C5" t="n">
-        <v>79.27929399581578</v>
+        <v>98.05969899680531</v>
       </c>
       <c r="D5" t="n">
-        <v>59.53383606904863</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4165.696458258275</v>
+        <v>3453.868883793133</v>
       </c>
       <c r="F5" t="n">
-        <v>5165.696458258275</v>
+        <v>4453.868883793133</v>
       </c>
       <c r="G5" t="n">
-        <v>65.00000000011924</v>
+        <v>65.0000000001194</v>
       </c>
       <c r="H5" t="n">
-        <v>11.29879909335846</v>
+        <v>13.87958373221947</v>
       </c>
     </row>
   </sheetData>

--- a/multiple_profiles_sorted_results.xlsx
+++ b/multiple_profiles_sorted_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,20 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Total Cost</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Annual Demand Offset</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Annual Demand Met</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Annual Curtailment:</t>
         </is>
@@ -473,113 +483,35 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>IPP241-Solar_3-Wind_1</t>
+          <t>IPP241-Wind_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>129.7316043227053</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>88.24017042041037</v>
+        <v>206.2963128600185</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3164.081687917208</v>
+        <v>4037.383632935243</v>
       </c>
       <c r="F2" t="n">
-        <v>4164.081687917208</v>
+        <v>5037.383632935243</v>
       </c>
       <c r="G2" t="n">
-        <v>65.00000000011914</v>
+        <v>1912190258.08027</v>
       </c>
       <c r="H2" t="n">
-        <v>17.64700479759088</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>IPP241-Solar_3-Wind_6</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>133.1287247831341</v>
-      </c>
-      <c r="C3" t="n">
-        <v>87.03541073781425</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3220.761226087495</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4220.761226087495</v>
-      </c>
-      <c r="G3" t="n">
-        <v>65.00000000011914</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18.25556568411022</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>IPP241-Solar_4-Wind_1</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>103.099190244392</v>
-      </c>
-      <c r="C4" t="n">
-        <v>99.64452975237268</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3389.959170067466</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4389.959170067466</v>
-      </c>
-      <c r="G4" t="n">
-        <v>65.00000000011939</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13.50218545543646</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>IPP241-Solar_4-Wind_6</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>106.191019047453</v>
-      </c>
-      <c r="C5" t="n">
-        <v>98.05969899680531</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3453.868883793133</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4453.868883793133</v>
-      </c>
-      <c r="G5" t="n">
-        <v>65.0000000001194</v>
-      </c>
-      <c r="H5" t="n">
-        <v>13.87958373221947</v>
+        <v>65.00000000011912</v>
+      </c>
+      <c r="I2" t="n">
+        <v>473621.1447635153</v>
+      </c>
+      <c r="J2" t="n">
+        <v>25.11971877890805</v>
       </c>
     </row>
   </sheetData>

--- a/multiple_profiles_sorted_results.xlsx
+++ b/multiple_profiles_sorted_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,35 +483,69 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>IPP241-Wind_1</t>
+          <t>IPP585-Solar_1-Wind_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>94.99231939877325</v>
       </c>
       <c r="C2" t="n">
-        <v>206.2963128600185</v>
+        <v>104.1875623395415</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4037.383632935243</v>
+        <v>3373.237377187323</v>
       </c>
       <c r="F2" t="n">
-        <v>5037.383632935243</v>
+        <v>4373.237377187323</v>
       </c>
       <c r="G2" t="n">
-        <v>1912190258.08027</v>
+        <v>1597636548.142552</v>
       </c>
       <c r="H2" t="n">
-        <v>65.00000000011912</v>
+        <v>65.0000000001197</v>
       </c>
       <c r="I2" t="n">
-        <v>473621.1447635153</v>
+        <v>473621.1447635195</v>
       </c>
       <c r="J2" t="n">
-        <v>25.11971877890805</v>
+        <v>12.68842458237529</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>IPP241-Solar_1-Wind_1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>75.70241659528399</v>
+      </c>
+      <c r="C3" t="n">
+        <v>117.2513728755072</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3768.550743904716</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4768.550743904716</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1784865317.427556</v>
+      </c>
+      <c r="H3" t="n">
+        <v>65.00000000011937</v>
+      </c>
+      <c r="I3" t="n">
+        <v>473621.1447635171</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11.83798707726919</v>
       </c>
     </row>
   </sheetData>

--- a/multiple_profiles_sorted_results.xlsx
+++ b/multiple_profiles_sorted_results.xlsx
@@ -483,69 +483,69 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>IPP585-Solar_1-Wind_1</t>
+          <t>IPP585-Solar_2-Wind_1-ESS_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.99231939877325</v>
+        <v>3.214515679002839</v>
       </c>
       <c r="C2" t="n">
-        <v>104.1875623395415</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9.971862794304231</v>
       </c>
       <c r="E2" t="n">
-        <v>3373.237377187323</v>
+        <v>283.7915393323927</v>
       </c>
       <c r="F2" t="n">
-        <v>4373.237377187323</v>
+        <v>1283.791539332393</v>
       </c>
       <c r="G2" t="n">
-        <v>1597636548.142552</v>
+        <v>1946189.023932171</v>
       </c>
       <c r="H2" t="n">
-        <v>65.0000000001197</v>
+        <v>65.00000000000054</v>
       </c>
       <c r="I2" t="n">
-        <v>473621.1447635195</v>
+        <v>6857.812000000056</v>
       </c>
       <c r="J2" t="n">
-        <v>12.68842458237529</v>
+        <v>2.630989319536125e-15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>IPP241-Solar_1-Wind_1</t>
+          <t>IPP585-Solar_1-Wind_1-ESS_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.70241659528399</v>
+        <v>2.527974342348726</v>
       </c>
       <c r="C3" t="n">
-        <v>117.2513728755072</v>
+        <v>0.5325171645152554</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7.68650812051252</v>
       </c>
       <c r="E3" t="n">
-        <v>3768.550743904716</v>
+        <v>3453.006736094052</v>
       </c>
       <c r="F3" t="n">
-        <v>4768.550743904716</v>
+        <v>4453.006736094052</v>
       </c>
       <c r="G3" t="n">
-        <v>1784865317.427556</v>
+        <v>23680071.03086682</v>
       </c>
       <c r="H3" t="n">
-        <v>65.00000000011937</v>
+        <v>65.00000000000055</v>
       </c>
       <c r="I3" t="n">
-        <v>473621.1447635171</v>
+        <v>6857.812000000058</v>
       </c>
       <c r="J3" t="n">
-        <v>11.83798707726919</v>
+        <v>2.66322713469988</v>
       </c>
     </row>
   </sheetData>

--- a/multiple_profiles_sorted_results.xlsx
+++ b/multiple_profiles_sorted_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,69 +483,35 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>IPP585-Solar_2-Wind_1-ESS_1</t>
+          <t>IPP585-Wind_1-ESS_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.214515679002839</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>2.765755579882333</v>
       </c>
       <c r="D2" t="n">
-        <v>9.971862794304231</v>
+        <v>6.250853442091862</v>
       </c>
       <c r="E2" t="n">
-        <v>283.7915393323927</v>
+        <v>3974.253289162103</v>
       </c>
       <c r="F2" t="n">
-        <v>1283.791539332393</v>
+        <v>4974.253289162103</v>
       </c>
       <c r="G2" t="n">
-        <v>1946189.023932171</v>
+        <v>27254681.89745538</v>
       </c>
       <c r="H2" t="n">
-        <v>65.00000000000054</v>
+        <v>65.0000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>6857.812000000056</v>
+        <v>6857.812000000011</v>
       </c>
       <c r="J2" t="n">
-        <v>2.630989319536125e-15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>IPP585-Solar_1-Wind_1-ESS_1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2.527974342348726</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5325171645152554</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.68650812051252</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3453.006736094052</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4453.006736094052</v>
-      </c>
-      <c r="G3" t="n">
-        <v>23680071.03086682</v>
-      </c>
-      <c r="H3" t="n">
-        <v>65.00000000000055</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6857.812000000058</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.66322713469988</v>
+        <v>14.56926476112698</v>
       </c>
     </row>
   </sheetData>

--- a/multiple_profiles_sorted_results.xlsx
+++ b/multiple_profiles_sorted_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Annual Curtailment:</t>
+          <t>Annual Curtailment</t>
         </is>
       </c>
     </row>
@@ -490,28 +490,62 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.765755579882333</v>
+        <v>2.974942838377783</v>
       </c>
       <c r="D2" t="n">
-        <v>6.250853442091862</v>
+        <v>140.0698733936311</v>
       </c>
       <c r="E2" t="n">
-        <v>3974.253289162103</v>
+        <v>4561.471510775326</v>
       </c>
       <c r="F2" t="n">
-        <v>4974.253289162103</v>
+        <v>5561.471510775326</v>
       </c>
       <c r="G2" t="n">
-        <v>27254681.89745538</v>
+        <v>31059532.08531777</v>
       </c>
       <c r="H2" t="n">
-        <v>65.0000000000001</v>
+        <v>65.00000000000013</v>
       </c>
       <c r="I2" t="n">
-        <v>6857.812000000011</v>
+        <v>6809.103600000013</v>
       </c>
       <c r="J2" t="n">
-        <v>14.56926476112698</v>
+        <v>1.489598972978839</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>IPP585-Wind_1-ESS_2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.974942838377783</v>
+      </c>
+      <c r="D3" t="n">
+        <v>140.0698733936311</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4561.471510775326</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5561.471510775326</v>
+      </c>
+      <c r="G3" t="n">
+        <v>31059532.08531777</v>
+      </c>
+      <c r="H3" t="n">
+        <v>65.00000000000013</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6809.103600000013</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.489598972978839</v>
       </c>
     </row>
   </sheetData>

--- a/multiple_profiles_sorted_results.xlsx
+++ b/multiple_profiles_sorted_results.xlsx
@@ -483,69 +483,69 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>IPP585-Wind_1-ESS_1</t>
+          <t>IPP369-Wind_1-ESS_1</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.974942838377783</v>
+        <v>110.2263153116867</v>
       </c>
       <c r="D2" t="n">
-        <v>140.0698733936311</v>
+        <v>35.17716761216561</v>
       </c>
       <c r="E2" t="n">
-        <v>4561.471510775326</v>
+        <v>7912.102334764987</v>
       </c>
       <c r="F2" t="n">
-        <v>5561.471510775326</v>
+        <v>8912.102334764986</v>
       </c>
       <c r="G2" t="n">
-        <v>31059532.08531777</v>
+        <v>1473690210.906502</v>
       </c>
       <c r="H2" t="n">
-        <v>65.00000000000013</v>
+        <v>64.99999999999994</v>
       </c>
       <c r="I2" t="n">
-        <v>6809.103600000013</v>
+        <v>186257.7287999998</v>
       </c>
       <c r="J2" t="n">
-        <v>1.489598972978839</v>
+        <v>30.000000000019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>IPP585-Wind_1-ESS_2</t>
+          <t>IPP369-Wind_1-ESS_2</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.974942838377783</v>
+        <v>95.99196815140722</v>
       </c>
       <c r="D3" t="n">
-        <v>140.0698733936311</v>
+        <v>53.15942122632188</v>
       </c>
       <c r="E3" t="n">
-        <v>4561.471510775326</v>
+        <v>9115.783038975145</v>
       </c>
       <c r="F3" t="n">
-        <v>5561.471510775326</v>
+        <v>10115.78303897515</v>
       </c>
       <c r="G3" t="n">
-        <v>31059532.08531777</v>
+        <v>1697885045.07307</v>
       </c>
       <c r="H3" t="n">
-        <v>65.00000000000013</v>
+        <v>64.99999999999991</v>
       </c>
       <c r="I3" t="n">
-        <v>6809.103600000013</v>
+        <v>186257.7287999997</v>
       </c>
       <c r="J3" t="n">
-        <v>1.489598972978839</v>
+        <v>30.00000000002</v>
       </c>
     </row>
   </sheetData>

--- a/multiple_profiles_sorted_results.xlsx
+++ b/multiple_profiles_sorted_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,69 +483,205 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>IPP369-Wind_1-ESS_1</t>
+          <t>IPP369-Solar_2-Wind_1-ESS_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>33.87583061292044</v>
       </c>
       <c r="C2" t="n">
-        <v>110.2263153116867</v>
+        <v>27.79846832146276</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17716761216561</v>
+        <v>52.61740812351554</v>
       </c>
       <c r="E2" t="n">
-        <v>7912.102334764987</v>
+        <v>10337.54186792617</v>
       </c>
       <c r="F2" t="n">
-        <v>8912.102334764986</v>
+        <v>11337.54186792617</v>
       </c>
       <c r="G2" t="n">
-        <v>1473690210.906502</v>
+        <v>1360424607.62067</v>
       </c>
       <c r="H2" t="n">
-        <v>64.99999999999994</v>
+        <v>54.99999999999955</v>
       </c>
       <c r="I2" t="n">
-        <v>186257.7287999998</v>
+        <v>131600.3963999989</v>
       </c>
       <c r="J2" t="n">
-        <v>30.000000000019</v>
+        <v>18.21699380867432</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>IPP369-Wind_1-ESS_2</t>
+          <t>IPP369-Solar_1-Wind_1-ESS_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>25.33672457348701</v>
       </c>
       <c r="C3" t="n">
-        <v>95.99196815140722</v>
+        <v>33.73000222512528</v>
       </c>
       <c r="D3" t="n">
-        <v>53.15942122632188</v>
+        <v>52.61740812351554</v>
       </c>
       <c r="E3" t="n">
-        <v>9115.783038975145</v>
+        <v>10556.2472062976</v>
       </c>
       <c r="F3" t="n">
-        <v>10115.78303897515</v>
+        <v>11556.2472062976</v>
       </c>
       <c r="G3" t="n">
-        <v>1697885045.07307</v>
+        <v>1389206316.845144</v>
       </c>
       <c r="H3" t="n">
-        <v>64.99999999999991</v>
+        <v>54.9999999999995</v>
       </c>
       <c r="I3" t="n">
-        <v>186257.7287999997</v>
+        <v>131600.3963999988</v>
       </c>
       <c r="J3" t="n">
-        <v>30.00000000002</v>
+        <v>17.05507906875768</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>IPP585-Solar_2-Wind_1-ESS_2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>110</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>107.4367189189395</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19714.48720826431</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20714.48720826431</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2594434331.430319</v>
+      </c>
+      <c r="H4" t="n">
+        <v>55.00000000000015</v>
+      </c>
+      <c r="I4" t="n">
+        <v>131600.3964000003</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30.00000000001625</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>IPP585-Solar_2-Wind_2-ESS_2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>110</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>107.4367189189395</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19714.48720826431</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20714.48720826431</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2594434331.430319</v>
+      </c>
+      <c r="H5" t="n">
+        <v>55.00000000000015</v>
+      </c>
+      <c r="I5" t="n">
+        <v>131600.3964000003</v>
+      </c>
+      <c r="J5" t="n">
+        <v>30.00000000001625</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>IPP585-Solar_1-Wind_1-ESS_2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>147.1434343831619</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>111.2042735340027</v>
+      </c>
+      <c r="E6" t="n">
+        <v>21569.56653041822</v>
+      </c>
+      <c r="F6" t="n">
+        <v>22569.56653041822</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2838563505.579233</v>
+      </c>
+      <c r="H6" t="n">
+        <v>55.00000000000043</v>
+      </c>
+      <c r="I6" t="n">
+        <v>131600.396400001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30.00000000003454</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>IPP585-Solar_1-Wind_2-ESS_2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>147.1434343831619</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>111.2042735340027</v>
+      </c>
+      <c r="E7" t="n">
+        <v>21569.56653041822</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22569.56653041822</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2838563505.579233</v>
+      </c>
+      <c r="H7" t="n">
+        <v>55.00000000000043</v>
+      </c>
+      <c r="I7" t="n">
+        <v>131600.396400001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>30.00000000003454</v>
       </c>
     </row>
   </sheetData>

--- a/multiple_profiles_sorted_results.xlsx
+++ b/multiple_profiles_sorted_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,75 +483,75 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>IPP369-Solar_2-Wind_1-ESS_2</t>
+          <t>IPP369-Solar_1-Wind_1-ESS_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.87583061292044</v>
+        <v>27.58420217684733</v>
       </c>
       <c r="C2" t="n">
-        <v>27.79846832146276</v>
+        <v>49.53560416003003</v>
       </c>
       <c r="D2" t="n">
         <v>52.61740812351554</v>
       </c>
       <c r="E2" t="n">
-        <v>10337.54186792617</v>
+        <v>9651.815383804371</v>
       </c>
       <c r="F2" t="n">
-        <v>11337.54186792617</v>
+        <v>10651.81538380437</v>
       </c>
       <c r="G2" t="n">
-        <v>1360424607.62067</v>
+        <v>1501125045.122499</v>
       </c>
       <c r="H2" t="n">
-        <v>54.99999999999955</v>
+        <v>64.99999999999976</v>
       </c>
       <c r="I2" t="n">
-        <v>131600.3963999989</v>
+        <v>155527.7411999994</v>
       </c>
       <c r="J2" t="n">
-        <v>18.21699380867432</v>
+        <v>26.45724893107394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>IPP369-Solar_1-Wind_1-ESS_2</t>
+          <t>IPP585-Solar_2-Wind_1-ESS_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.33672457348701</v>
+        <v>110</v>
       </c>
       <c r="C3" t="n">
-        <v>33.73000222512528</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>52.61740812351554</v>
+        <v>169.5293505172751</v>
       </c>
       <c r="E3" t="n">
-        <v>10556.2472062976</v>
+        <v>23925.05623954744</v>
       </c>
       <c r="F3" t="n">
-        <v>11556.2472062976</v>
+        <v>24925.05623954744</v>
       </c>
       <c r="G3" t="n">
-        <v>1389206316.845144</v>
+        <v>3721009955.019769</v>
       </c>
       <c r="H3" t="n">
-        <v>54.9999999999995</v>
+        <v>64.9999999999998</v>
       </c>
       <c r="I3" t="n">
-        <v>131600.3963999988</v>
+        <v>155527.7411999995</v>
       </c>
       <c r="J3" t="n">
-        <v>17.05507906875768</v>
+        <v>26.91873243673608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>IPP585-Solar_2-Wind_1-ESS_2</t>
+          <t>IPP585-Solar_2-Wind_2-ESS_2</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -561,127 +561,93 @@
         <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>107.4367189189395</v>
+        <v>169.5293505172751</v>
       </c>
       <c r="E4" t="n">
-        <v>19714.48720826431</v>
+        <v>23925.05623954744</v>
       </c>
       <c r="F4" t="n">
-        <v>20714.48720826431</v>
+        <v>24925.05623954744</v>
       </c>
       <c r="G4" t="n">
-        <v>2594434331.430319</v>
+        <v>3721009955.019769</v>
       </c>
       <c r="H4" t="n">
-        <v>55.00000000000015</v>
+        <v>64.9999999999998</v>
       </c>
       <c r="I4" t="n">
-        <v>131600.3964000003</v>
+        <v>155527.7411999995</v>
       </c>
       <c r="J4" t="n">
-        <v>30.00000000001625</v>
+        <v>26.91873243673608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>IPP585-Solar_2-Wind_2-ESS_2</t>
+          <t>IPP585-Solar_1-Wind_1-ESS_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110</v>
+        <v>186.0698867343974</v>
       </c>
       <c r="C5" t="n">
         <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>107.4367189189395</v>
+        <v>148.0493368312261</v>
       </c>
       <c r="E5" t="n">
-        <v>19714.48720826431</v>
+        <v>23954.89202789721</v>
       </c>
       <c r="F5" t="n">
-        <v>20714.48720826431</v>
+        <v>24954.89202789721</v>
       </c>
       <c r="G5" t="n">
-        <v>2594434331.430319</v>
+        <v>3725650247.788759</v>
       </c>
       <c r="H5" t="n">
-        <v>55.00000000000015</v>
+        <v>65.00000000000034</v>
       </c>
       <c r="I5" t="n">
-        <v>131600.3964000003</v>
+        <v>155527.7412000008</v>
       </c>
       <c r="J5" t="n">
-        <v>30.00000000001625</v>
+        <v>30.00000000003452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>IPP585-Solar_1-Wind_1-ESS_2</t>
+          <t>IPP585-Solar_1-Wind_2-ESS_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147.1434343831619</v>
+        <v>186.0698867343974</v>
       </c>
       <c r="C6" t="n">
         <v>-0</v>
       </c>
       <c r="D6" t="n">
-        <v>111.2042735340027</v>
+        <v>148.0493368312261</v>
       </c>
       <c r="E6" t="n">
-        <v>21569.56653041822</v>
+        <v>23954.89202789721</v>
       </c>
       <c r="F6" t="n">
-        <v>22569.56653041822</v>
+        <v>24954.89202789721</v>
       </c>
       <c r="G6" t="n">
-        <v>2838563505.579233</v>
+        <v>3725650247.788759</v>
       </c>
       <c r="H6" t="n">
-        <v>55.00000000000043</v>
+        <v>65.00000000000034</v>
       </c>
       <c r="I6" t="n">
-        <v>131600.396400001</v>
+        <v>155527.7412000008</v>
       </c>
       <c r="J6" t="n">
-        <v>30.00000000003454</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>IPP585-Solar_1-Wind_2-ESS_2</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>147.1434343831619</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>111.2042735340027</v>
-      </c>
-      <c r="E7" t="n">
-        <v>21569.56653041822</v>
-      </c>
-      <c r="F7" t="n">
-        <v>22569.56653041822</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2838563505.579233</v>
-      </c>
-      <c r="H7" t="n">
-        <v>55.00000000000043</v>
-      </c>
-      <c r="I7" t="n">
-        <v>131600.396400001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>30.00000000003454</v>
+        <v>30.00000000003452</v>
       </c>
     </row>
   </sheetData>

--- a/multiple_profiles_sorted_results.xlsx
+++ b/multiple_profiles_sorted_results.xlsx
@@ -487,167 +487,167 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.58420217684733</v>
+        <v>4.135063959726197</v>
       </c>
       <c r="C2" t="n">
-        <v>49.53560416003003</v>
+        <v>29.9736666399491</v>
       </c>
       <c r="D2" t="n">
-        <v>52.61740812351554</v>
+        <v>18.75697678820473</v>
       </c>
       <c r="E2" t="n">
-        <v>9651.815383804371</v>
+        <v>9506.750456525891</v>
       </c>
       <c r="F2" t="n">
-        <v>10651.81538380437</v>
+        <v>10506.75045652589</v>
       </c>
       <c r="G2" t="n">
-        <v>1501125045.122499</v>
+        <v>596223854.8115311</v>
       </c>
       <c r="H2" t="n">
-        <v>64.99999999999976</v>
+        <v>65.00000000000007</v>
       </c>
       <c r="I2" t="n">
-        <v>155527.7411999994</v>
+        <v>62715.84150000006</v>
       </c>
       <c r="J2" t="n">
-        <v>26.45724893107394</v>
+        <v>30.00000000001278</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>IPP585-Solar_2-Wind_1-ESS_2</t>
+          <t>IPP585-Solar_1-Wind_1-ESS_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110</v>
+        <v>73.6457638928412</v>
       </c>
       <c r="C3" t="n">
         <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>169.5293505172751</v>
+        <v>96.32362176882462</v>
       </c>
       <c r="E3" t="n">
-        <v>23925.05623954744</v>
+        <v>34335.64260191843</v>
       </c>
       <c r="F3" t="n">
-        <v>24925.05623954744</v>
+        <v>35335.64260191843</v>
       </c>
       <c r="G3" t="n">
-        <v>3721009955.019769</v>
+        <v>2153388719.222576</v>
       </c>
       <c r="H3" t="n">
-        <v>64.9999999999998</v>
+        <v>65.00000000000037</v>
       </c>
       <c r="I3" t="n">
-        <v>155527.7411999995</v>
+        <v>62715.84150000035</v>
       </c>
       <c r="J3" t="n">
-        <v>26.91873243673608</v>
+        <v>30.00000000003407</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>IPP585-Solar_2-Wind_2-ESS_2</t>
+          <t>IPP585-Solar_1-Wind_2-ESS_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110</v>
+        <v>73.6457638928412</v>
       </c>
       <c r="C4" t="n">
         <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>169.5293505172751</v>
+        <v>96.32362176882462</v>
       </c>
       <c r="E4" t="n">
-        <v>23925.05623954744</v>
+        <v>34335.64260191843</v>
       </c>
       <c r="F4" t="n">
-        <v>24925.05623954744</v>
+        <v>35335.64260191843</v>
       </c>
       <c r="G4" t="n">
-        <v>3721009955.019769</v>
+        <v>2153388719.222576</v>
       </c>
       <c r="H4" t="n">
-        <v>64.9999999999998</v>
+        <v>65.00000000000037</v>
       </c>
       <c r="I4" t="n">
-        <v>155527.7411999995</v>
+        <v>62715.84150000035</v>
       </c>
       <c r="J4" t="n">
-        <v>26.91873243673608</v>
+        <v>30.00000000003407</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>IPP585-Solar_1-Wind_1-ESS_2</t>
+          <t>IPP585-Solar_2-Wind_1-ESS_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>186.0698867343974</v>
+        <v>72.01408538931113</v>
       </c>
       <c r="C5" t="n">
         <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>148.0493368312261</v>
+        <v>97.97904427143409</v>
       </c>
       <c r="E5" t="n">
-        <v>23954.89202789721</v>
+        <v>35101.2384516903</v>
       </c>
       <c r="F5" t="n">
-        <v>24954.89202789721</v>
+        <v>36101.2384516903</v>
       </c>
       <c r="G5" t="n">
-        <v>3725650247.788759</v>
+        <v>2201403707.189928</v>
       </c>
       <c r="H5" t="n">
-        <v>65.00000000000034</v>
+        <v>65.0000000000004</v>
       </c>
       <c r="I5" t="n">
-        <v>155527.7412000008</v>
+        <v>62715.84150000038</v>
       </c>
       <c r="J5" t="n">
-        <v>30.00000000003452</v>
+        <v>30.00000000001602</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>IPP585-Solar_1-Wind_2-ESS_2</t>
+          <t>IPP585-Solar_2-Wind_2-ESS_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186.0698867343974</v>
+        <v>72.01408538931113</v>
       </c>
       <c r="C6" t="n">
         <v>-0</v>
       </c>
       <c r="D6" t="n">
-        <v>148.0493368312261</v>
+        <v>97.97904427143409</v>
       </c>
       <c r="E6" t="n">
-        <v>23954.89202789721</v>
+        <v>35101.2384516903</v>
       </c>
       <c r="F6" t="n">
-        <v>24954.89202789721</v>
+        <v>36101.2384516903</v>
       </c>
       <c r="G6" t="n">
-        <v>3725650247.788759</v>
+        <v>2201403707.189928</v>
       </c>
       <c r="H6" t="n">
-        <v>65.00000000000034</v>
+        <v>65.0000000000004</v>
       </c>
       <c r="I6" t="n">
-        <v>155527.7412000008</v>
+        <v>62715.84150000038</v>
       </c>
       <c r="J6" t="n">
-        <v>30.00000000003452</v>
+        <v>30.00000000001602</v>
       </c>
     </row>
   </sheetData>

--- a/multiple_profiles_sorted_results.xlsx
+++ b/multiple_profiles_sorted_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,167 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.135063959726197</v>
+        <v>94.46521072481696</v>
       </c>
       <c r="C2" t="n">
-        <v>29.9736666399491</v>
+        <v>107.6187383036825</v>
       </c>
       <c r="D2" t="n">
-        <v>18.75697678820473</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>9506.750456525891</v>
+        <v>3155.801960464804</v>
       </c>
       <c r="F2" t="n">
-        <v>10506.75045652589</v>
+        <v>4155.801960464803</v>
       </c>
       <c r="G2" t="n">
-        <v>596223854.8115311</v>
+        <v>1494442857.17232</v>
       </c>
       <c r="H2" t="n">
-        <v>65.00000000000007</v>
+        <v>64.99999999993159</v>
       </c>
       <c r="I2" t="n">
-        <v>62715.84150000006</v>
+        <v>473554.0683142901</v>
       </c>
       <c r="J2" t="n">
-        <v>30.00000000001278</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>IPP585-Solar_1-Wind_1-ESS_2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>73.6457638928412</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>96.32362176882462</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34335.64260191843</v>
-      </c>
-      <c r="F3" t="n">
-        <v>35335.64260191843</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2153388719.222576</v>
-      </c>
-      <c r="H3" t="n">
-        <v>65.00000000000037</v>
-      </c>
-      <c r="I3" t="n">
-        <v>62715.84150000035</v>
-      </c>
-      <c r="J3" t="n">
-        <v>30.00000000003407</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>IPP585-Solar_1-Wind_2-ESS_2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>73.6457638928412</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>96.32362176882462</v>
-      </c>
-      <c r="E4" t="n">
-        <v>34335.64260191843</v>
-      </c>
-      <c r="F4" t="n">
-        <v>35335.64260191843</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2153388719.222576</v>
-      </c>
-      <c r="H4" t="n">
-        <v>65.00000000000037</v>
-      </c>
-      <c r="I4" t="n">
-        <v>62715.84150000035</v>
-      </c>
-      <c r="J4" t="n">
-        <v>30.00000000003407</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>IPP585-Solar_2-Wind_1-ESS_2</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>72.01408538931113</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>97.97904427143409</v>
-      </c>
-      <c r="E5" t="n">
-        <v>35101.2384516903</v>
-      </c>
-      <c r="F5" t="n">
-        <v>36101.2384516903</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2201403707.189928</v>
-      </c>
-      <c r="H5" t="n">
-        <v>65.0000000000004</v>
-      </c>
-      <c r="I5" t="n">
-        <v>62715.84150000038</v>
-      </c>
-      <c r="J5" t="n">
-        <v>30.00000000001602</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>IPP585-Solar_2-Wind_2-ESS_2</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>72.01408538931113</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>97.97904427143409</v>
-      </c>
-      <c r="E6" t="n">
-        <v>35101.2384516903</v>
-      </c>
-      <c r="F6" t="n">
-        <v>36101.2384516903</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2201403707.189928</v>
-      </c>
-      <c r="H6" t="n">
-        <v>65.0000000000004</v>
-      </c>
-      <c r="I6" t="n">
-        <v>62715.84150000038</v>
-      </c>
-      <c r="J6" t="n">
-        <v>30.00000000001602</v>
+        <v>15.44882579997673</v>
       </c>
     </row>
   </sheetData>

--- a/multiple_profiles_sorted_results.xlsx
+++ b/multiple_profiles_sorted_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,36 +483,70 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>IPP369-Solar_1-Wind_1-ESS_2</t>
+          <t>IPP390-Wind_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.46521072481696</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>107.6187383036825</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>IPP390-Wind_5</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>-0</v>
       </c>
-      <c r="E2" t="n">
-        <v>3155.801960464804</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4155.801960464803</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1494442857.17232</v>
-      </c>
-      <c r="H2" t="n">
-        <v>64.99999999993159</v>
-      </c>
-      <c r="I2" t="n">
-        <v>473554.0683142901</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15.44882579997673</v>
-      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/multiple_profiles_sorted_results.xlsx
+++ b/multiple_profiles_sorted_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,70 +483,138 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>IPP390-Wind_4</t>
+          <t>-Solar_2-Wind_2-ESS_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.779338857981218</v>
       </c>
       <c r="C2" t="n">
-        <v>-0</v>
+        <v>13.22413885710283</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>540.1396958671371</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6064.350326423915</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7064.350326423915</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>130077444.8512185</v>
+      </c>
+      <c r="H2" t="n">
+        <v>65</v>
+      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>21449.5268</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8.791522396384634</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>IPP390-Wind_5</t>
+          <t>-Solar_2-Wind_1-ESS_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>14.21351799591395</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>173.3543978584382</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9595.242444198277</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10595.24244419828</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>205813409.9593289</v>
+      </c>
+      <c r="H3" t="n">
+        <v>65.00000000000014</v>
+      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>21449.52680000005</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15.27932731437567</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>-Solar_2-Wind_1-ESS_1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.579431099111949</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25.33523044166198</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.29381605715576</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26029.61951147003</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27029.61951147003</v>
+      </c>
+      <c r="G4" t="n">
+        <v>558323021.3050863</v>
+      </c>
+      <c r="H4" t="n">
+        <v>65.00000000000082</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21449.52680000026</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30.00000000004698</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>-Solar_2-Wind_2-ESS_1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.576474726084568</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.94052680760029</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.85482477554904</v>
+      </c>
+      <c r="E5" t="n">
+        <v>28750.94696410078</v>
+      </c>
+      <c r="F5" t="n">
+        <v>29750.94696410078</v>
+      </c>
+      <c r="G5" t="n">
+        <v>616694207.4318647</v>
+      </c>
+      <c r="H5" t="n">
+        <v>65.00000000000068</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21449.52680000023</v>
+      </c>
+      <c r="J5" t="n">
+        <v>30.00000000001754</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
